--- a/tensorflow/LineTest.xlsx
+++ b/tensorflow/LineTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A905E24E-15C2-433E-950A-8B18EE0E45F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C9D41D-EEA9-4905-89B8-9605CB892D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1365" windowWidth="21240" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="6960" windowWidth="21240" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -522,8 +522,12 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="6">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.6178999999999999E-5</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
